--- a/Data/Temp/Yearly-Report-RO094782-2020-January.xlsx
+++ b/Data/Temp/Yearly-Report-RO094782-2020-January.xlsx
@@ -14,45 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <x:si>
-    <x:t>430076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Beverages and Catering</x:t>
-  </x:si>
-  <x:si>
-    <x:t>273513</x:t>
-  </x:si>
-  <x:si>
-    <x:t>54702.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>328216</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>382036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40152.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>240914</x:t>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <x:si>
+    <x:t>517048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Concierge Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-01-23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>117110</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>140532</x:t>
   </x:si>
   <x:si>
     <x:t>RON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-01-02</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -403,7 +385,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G2"/>
+  <x:dimension ref="A1:G1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -430,29 +412,6 @@
       </x:c>
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7">
-      <x:c r="A2" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
